--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8C8F8-C014-4310-A043-68F4AD0DAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F134DC7-2629-4842-90C2-6DE9E0B02B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2385" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="3360" yWindow="3660" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
-    <t>TowerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,26 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpeedStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbilityStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UpgradeStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,7 +138,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerType</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,90 +556,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -691,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -715,7 +715,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1">
         <v>-0.05</v>
@@ -735,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -759,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -779,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1">
         <v>0.2</v>
@@ -823,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -867,10 +867,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>0.15</v>
@@ -911,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1">
         <v>0.6</v>
@@ -955,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1">
         <v>0.15</v>
@@ -999,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1043,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
         <v>0.2</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F134DC7-2629-4842-90C2-6DE9E0B02B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD98322-EA2D-4281-8CC5-9BDD6BC25448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3660" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="5535" yWindow="2055" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>250</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>500</v>
@@ -973,7 +973,7 @@
         <v>0.25</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1046,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>15</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD98322-EA2D-4281-8CC5-9BDD6BC25448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A60113-4D23-40BE-9003-3E97F708C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2055" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="6570" yWindow="3090" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,26 @@
   </si>
   <si>
     <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +563,7 @@
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -609,7 +629,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -652,8 +672,8 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -696,8 +716,8 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -740,8 +760,8 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -784,8 +804,8 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -828,8 +848,8 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -872,8 +892,8 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -916,8 +936,8 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -960,8 +980,8 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1004,8 +1024,8 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1048,8 +1068,8 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1092,8 +1112,8 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A60113-4D23-40BE-9003-3E97F708C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95436D-1392-441C-9D6A-23568809E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3090" windowWidth="21645" windowHeight="11850" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="3735" yWindow="480" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,62 @@
   </si>
   <si>
     <t>TowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hourglass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gatling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,89 +605,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E1E1B-8DF6-4821-ACD0-5B83FC7D637A}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -647,502 +703,538 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>40</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="M4" s="1">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>300</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>200</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>300</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="1">
+        <v>300</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>250</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>200</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="M10" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>150</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>300</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>150</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>150</v>
+      </c>
+      <c r="N13" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="1">
-        <v>40</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="L4" s="1">
-        <v>60</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>300</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>300</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>200</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>300</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L8" s="1">
-        <v>300</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3</v>
-      </c>
-      <c r="N8" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>250</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L9" s="1">
-        <v>200</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>500</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H10" s="1">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L10" s="1">
-        <v>100</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>150</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>300</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>100</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4</v>
-      </c>
-      <c r="N12" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>150</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>150</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>150</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>400</v>
       </c>
     </row>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95436D-1392-441C-9D6A-23568809E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA02A3F4-5D5D-48BF-9FB1-2B70728BAE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="480" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="1950" yWindow="810" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,46 @@
   </si>
   <si>
     <t>Flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E1E1B-8DF6-4821-ACD0-5B83FC7D637A}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1281,147 @@
         <v>400</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA02A3F4-5D5D-48BF-9FB1-2B70728BAE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D8281-B4D4-4EB4-8353-4C94FF81F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="810" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="5580" yWindow="585" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E1E1B-8DF6-4821-ACD0-5B83FC7D637A}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>30</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D8281-B4D4-4EB4-8353-4C94FF81F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042CB579-48F7-4371-A77C-D2B6CE937B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="585" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="3015" yWindow="810" windowWidth="23880" windowHeight="15390" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,19 +238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채굴타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +283,16 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -321,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +330,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +655,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,16 +1290,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1325,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>50</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1333,16 +1337,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1360,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1372,58 +1376,29 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>300</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11178F97-8B73-4841-8BCA-E81B8035F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE4074-7C75-4146-A1B1-89D4D6BA4D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="975" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="2550" yWindow="1965" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,10 +1073,10 @@
         <v>250</v>
       </c>
       <c r="H9" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE4074-7C75-4146-A1B1-89D4D6BA4D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6096E4D-56C6-49B4-9B64-B50CB04CF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1965" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
         <v>250</v>
       </c>
       <c r="H9" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="1">
         <v>5</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>51</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6096E4D-56C6-49B4-9B64-B50CB04CF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B9778-2B10-4878-9887-276D449C644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="3960" yWindow="495" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>51</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>51</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pig98\Desktop\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B9778-2B10-4878-9887-276D449C644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E961737-9080-4FEE-8EF2-51C659ED2AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="495" windowWidth="23880" windowHeight="15405" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="7830" yWindow="735" windowWidth="14370" windowHeight="13095" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O15" s="1">
         <v>300</v>

--- a/Design/DataTable/Tower.xlsx
+++ b/Design/DataTable/Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pig98\Desktop\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\game portfolio\PlumTowerDefecne-main\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E961737-9080-4FEE-8EF2-51C659ED2AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A08F2-B31B-43D1-96EC-97B7C16177C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="735" windowWidth="14370" windowHeight="13095" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
+    <workbookView xWindow="2565" yWindow="1500" windowWidth="26235" windowHeight="13980" xr2:uid="{D8F545AD-C7BD-4BA7-B861-5F2731389A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -655,7 +650,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1399,6 +1394,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>